--- a/tarea 5 MEM.xlsx
+++ b/tarea 5 MEM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UANL\13UANL-VERANO_2022\Métodos Estadísticos Multivariados\Tareas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\r-estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B09D2C-6C1C-465D-84CC-34710D9E12B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6ABD3B-FD44-421C-888C-FDEA24984414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prob 1" sheetId="1" r:id="rId1"/>
@@ -1402,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1415,7 +1415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1424,7 +1424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1437,11 +1436,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1466,9 +1461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1506,9 +1501,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1541,26 +1536,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1593,26 +1571,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1788,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,15 +1961,15 @@
         <f t="shared" ref="E11:E13" si="1">(1/60)*E4+(1/70)*M4</f>
         <v>-0.72619899470796223</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11">
         <f t="shared" ref="F11:F13" si="2">(1/60)*F4+(1/70)*N4</f>
         <v>1.780954036947848</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11">
         <f t="shared" ref="G11:G13" si="3">(1/60)*G4+(1/70)*O4</f>
         <v>0.15154508198436933</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" ref="H11:H13" si="4">(1/60)*H4+(1/70)*P4</f>
         <v>0.33014377234034686</v>
       </c>
@@ -2018,13 +1979,13 @@
       <c r="L11" s="18">
         <v>9.4410414955492614E-4</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11">
         <v>0.57617569023670934</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11">
         <v>-1.4133854731504629E-2</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="19">
         <v>-7.0620438164429089E-2</v>
       </c>
     </row>
@@ -2033,58 +1994,58 @@
         <f t="shared" si="1"/>
         <v>-10.93734189621253</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>0.15154508198436933</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12">
         <f t="shared" si="3"/>
         <v>5.7169366767549459</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="4"/>
         <v>-5.3975169972503484E-2</v>
       </c>
       <c r="L12" s="18">
         <v>1.452088885209322E-2</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12">
         <v>-1.4133854731504629E-2</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12">
         <v>0.2032148290302887</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="19">
         <v>1.4904393221315712E-2</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f t="shared" si="1"/>
         <v>-1.6760853627152978</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <f t="shared" si="2"/>
         <v>0.33014377234034686</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f t="shared" si="3"/>
         <v>-5.3975169972503484E-2</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <f t="shared" si="4"/>
         <v>2.6819614674452987</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>4.9124294120187562E-3</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <v>-7.0620438164429089E-2</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <v>1.4904393221315712E-2</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="22">
         <v>0.3849246264651276</v>
       </c>
     </row>
@@ -2148,7 +2109,7 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2157,7 +2118,7 @@
         <f>$D15-SQRT(CHIINV(0.05,4)*$E10)</f>
         <v>-33.964130606546256</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F23">
@@ -2173,7 +2134,7 @@
         <f>$D16-SQRT(CHIINV(0.05,4)*$F11)</f>
         <v>-0.93662152594018089</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F24">
@@ -2186,7 +2147,7 @@
         <f>$D17-SQRT(CHIINV(0.05,4)*$G12)</f>
         <v>-8.7148317095156429</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F25">
@@ -2199,7 +2160,7 @@
         <f>$D18-SQRT(CHIINV(0.05,4)*$H13)</f>
         <v>-4.3043754509561456</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F26">
@@ -2234,18 +2195,18 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>124.03</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>125.73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>133.9</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>137.91999999999999</v>
       </c>
     </row>
@@ -2253,45 +2214,45 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>8.9610000000000003</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>8.2059999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>7.9880000000000004</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>8.3670000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>51.3</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>50.93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>39.729999999999997</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>40.725999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>8.9169999999999998</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="26">
         <v>9.1790000000000003</v>
       </c>
     </row>
@@ -2355,52 +2316,52 @@
       <c r="B13" s="18">
         <v>645.84289000000001</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13">
         <v>696.78679999999997</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13">
         <f>C14</f>
         <v>48.461329999999997</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13">
         <f>C15</f>
         <v>41.697360000000003</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13">
         <f>C16</f>
         <v>244.34511000000001</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13">
         <f>C17</f>
         <v>202.89604</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f>C18</f>
         <v>46.873869999999997</v>
       </c>
       <c r="K13" s="18">
         <v>618.91886</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13">
         <v>667.58465000000001</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13">
         <f>L14</f>
         <v>48.857999999999997</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13">
         <f>L15</f>
         <v>40.403959999999998</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13">
         <f>L16</f>
         <v>243.20193</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13">
         <f>L17</f>
         <v>189.21062000000001</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="19">
         <f>L18</f>
         <v>44.853000000000002</v>
       </c>
@@ -2409,50 +2370,50 @@
       <c r="B14" s="18">
         <v>45.501370000000001</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14">
         <v>48.461329999999997</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14">
         <v>4.8676000000000004</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14">
         <f>D15</f>
         <v>4.0449200000000003</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14">
         <f>D16</f>
         <v>17.472049999999999</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14">
         <f>D17</f>
         <v>14.16381</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f>D18</f>
         <v>2.8787099999999999</v>
       </c>
       <c r="K14" s="18">
         <v>45.707369999999997</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14">
         <v>48.857999999999997</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14">
         <v>4.7199900000000001</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14">
         <f>M15</f>
         <v>3.9505400000000002</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14">
         <f>M16</f>
         <v>18.033439999999999</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14">
         <f>M17</f>
         <v>13.291219999999999</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f>M18</f>
         <v>3.0199699999999998</v>
       </c>
@@ -2464,24 +2425,24 @@
       <c r="B15" s="18">
         <v>39.21181</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15">
         <v>41.697360000000003</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15">
         <v>4.0449200000000003</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15">
         <v>4.1178299999999997</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15">
         <f>E16</f>
         <v>14.73732</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15">
         <f>E17</f>
         <v>11.3687</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f>E18</f>
         <v>2.5971700000000002</v>
       </c>
@@ -2491,24 +2452,24 @@
       <c r="K15" s="18">
         <v>38.201949999999997</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15">
         <v>40.403959999999998</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15">
         <v>3.9505400000000002</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15">
         <v>4.1772299999999998</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15">
         <f>N16</f>
         <v>14.44286</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15">
         <f>N17</f>
         <v>10.82841</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="19">
         <f>N18</f>
         <v>2.5692200000000001</v>
       </c>
@@ -2517,46 +2478,46 @@
       <c r="B16" s="18">
         <v>227.31139999999999</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16">
         <v>244.34511000000001</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16">
         <v>17.472049999999999</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16">
         <v>14.73732</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16">
         <v>97.056899999999999</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16">
         <f>F17</f>
         <v>70.604950000000002</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>F18</f>
         <v>16.079979999999999</v>
       </c>
       <c r="K16" s="18">
         <v>225.8663</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16">
         <v>243.20193</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16">
         <v>18.033439999999999</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16">
         <v>14.44286</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16">
         <v>95.498050000000006</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16">
         <f>O17</f>
         <v>67.830939999999998</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <f>O18</f>
         <v>16.084710000000001</v>
       </c>
@@ -2565,89 +2526,89 @@
       <c r="B17" s="18">
         <v>188.15965</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17">
         <v>202.89604</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17">
         <v>14.16381</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17">
         <v>11.3687</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17">
         <v>70.604950000000002</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17">
         <v>63.48021</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f>G18</f>
         <v>13.68793</v>
       </c>
       <c r="K17" s="18">
         <v>175.25235000000001</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17">
         <v>189.21062000000001</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17">
         <v>13.291219999999999</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17">
         <v>10.82841</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17">
         <v>67.830939999999998</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17">
         <v>58.567770000000003</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <f>P18</f>
         <v>12.80255</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>43.299010000000003</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>46.873869999999997</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>2.8787099999999999</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>2.5971700000000002</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>16.079979999999999</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>13.68793</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>3.31663</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>41.494239999999998</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="21">
         <v>44.853000000000002</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <v>3.0199699999999998</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <v>2.5692200000000001</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="21">
         <v>16.084710000000001</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="21">
         <v>12.80255</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="22">
         <v>3.14181</v>
       </c>
     </row>
@@ -2716,49 +2677,49 @@
         <f>(1/60)*B13+(1/80)*K13</f>
         <v>18.500533916666669</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24">
         <f t="shared" ref="E24:E29" si="1">(1/60)*C13+(1/80)*L13</f>
         <v>19.957921458333331</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24">
         <f t="shared" ref="F24:F29" si="2">(1/60)*D13+(1/80)*M13</f>
         <v>1.4184138333333332</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24">
         <f t="shared" ref="G24:G29" si="3">(1/60)*E13+(1/80)*N13</f>
         <v>1.2000055000000001</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24">
         <f t="shared" ref="H24:H29" si="4">(1/60)*F13+(1/80)*O13</f>
         <v>7.1124426250000008</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24">
         <f t="shared" ref="I24:I29" si="5">(1/60)*G13+(1/80)*P13</f>
         <v>5.7467334166666664</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <f t="shared" ref="J24:J29" si="6">(1/60)*H13+(1/80)*Q13</f>
         <v>1.3418936666666665</v>
       </c>
       <c r="N24" s="18">
         <v>-28.580430827151826</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24">
         <v>31.354578813202579</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24">
         <v>-17.395351612726589</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24">
         <v>14.190372583186317</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24">
         <v>-0.63134233517893878</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24">
         <v>-0.14641385234498294</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="19">
         <v>-61.884129700595722</v>
       </c>
     </row>
@@ -2767,49 +2728,49 @@
         <f t="shared" ref="D25:D29" si="7">(1/60)*B14+(1/80)*K14</f>
         <v>1.3296982916666669</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25">
         <f t="shared" si="1"/>
         <v>1.4184138333333332</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>0.14012654166666666</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>0.11679708333333334</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25">
         <f t="shared" si="4"/>
         <v>0.51661883333333325</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25">
         <f t="shared" si="5"/>
         <v>0.40220374999999997</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <f t="shared" si="6"/>
         <v>8.5728125000000002E-2</v>
       </c>
       <c r="N25" s="18">
         <v>9.4385027697201501E-2</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25">
         <v>-17.395351612725722</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25">
         <v>120.92540154471263</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25">
         <v>-58.839172336549858</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25">
         <v>1.0025079332570772</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25">
         <v>-5.9227851123138313</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="19">
         <v>202.26665465239682</v>
       </c>
     </row>
@@ -2821,27 +2782,27 @@
         <f t="shared" si="7"/>
         <v>1.1310545416666666</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>1.2000055000000001</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>0.11679708333333334</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26">
         <f t="shared" si="3"/>
         <v>0.12084587499999999</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26">
         <f t="shared" si="4"/>
         <v>0.42615775</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26">
         <f t="shared" si="5"/>
         <v>0.32483345833333332</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <f t="shared" si="6"/>
         <v>7.5401416666666665E-2</v>
       </c>
@@ -2851,22 +2812,22 @@
       <c r="N26" s="18">
         <v>-12.802802414212703</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26">
         <v>14.190372583185958</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26">
         <v>-58.839172336550206</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26">
         <v>59.40727507440333</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26">
         <v>1.9402637280956727</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26">
         <v>7.5681597172211639</v>
       </c>
-      <c r="T26" s="20">
+      <c r="T26" s="19">
         <v>-68.168316982030603</v>
       </c>
     </row>
@@ -2875,49 +2836,49 @@
         <f t="shared" si="7"/>
         <v>6.611852083333333</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>7.1124426250000008</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27">
         <f t="shared" si="2"/>
         <v>0.51661883333333325</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27">
         <f t="shared" si="3"/>
         <v>0.42615775</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27">
         <f t="shared" si="4"/>
         <v>2.8113406250000001</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27">
         <f t="shared" si="5"/>
         <v>2.024635916666667</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <f t="shared" si="6"/>
         <v>0.46905854166666666</v>
       </c>
       <c r="N27" s="18">
         <v>-2.2283514990423359</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27">
         <v>-0.63134233517888383</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27">
         <v>1.0025079332570175</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27">
         <v>1.9402637280957271</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27">
         <v>4.1845796458545594</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27">
         <v>0.90940483579579379</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="19">
         <v>11.243055641534292</v>
       </c>
     </row>
@@ -2926,141 +2887,141 @@
         <f t="shared" si="7"/>
         <v>5.3266485416666667</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>5.7467334166666664</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>0.40220374999999997</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28">
         <f t="shared" si="3"/>
         <v>0.32483345833333332</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28">
         <f t="shared" si="4"/>
         <v>2.024635916666667</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28">
         <f t="shared" si="5"/>
         <v>1.790100625</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="19">
         <f t="shared" si="6"/>
         <v>0.38816404166666668</v>
       </c>
       <c r="N28" s="18">
         <v>-2.3336928401338519</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28">
         <v>-0.1464138523451686</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28">
         <v>-5.9227851123138748</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28">
         <v>7.5681597172211017</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28">
         <v>0.90940483579577769</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28">
         <v>8.5192635613049745</v>
       </c>
-      <c r="T28" s="20">
+      <c r="T28" s="19">
         <v>-7.4597710714177197</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <f t="shared" si="7"/>
         <v>1.2403281666666666</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <f t="shared" si="1"/>
         <v>1.3418936666666665</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <f t="shared" si="2"/>
         <v>8.5728125000000002E-2</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <f t="shared" si="3"/>
         <v>7.5401416666666665E-2</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <f t="shared" si="4"/>
         <v>0.46905854166666666</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <f t="shared" si="5"/>
         <v>0.38816404166666668</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <f t="shared" si="6"/>
         <v>9.454979166666666E-2</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="20">
         <v>7.8275518514407256</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="21">
         <v>-61.884129700593348</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="21">
         <v>202.26665465239711</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="21">
         <v>-68.168316982029779</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="21">
         <v>11.243055641534429</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="21">
         <v>-7.4597710714176833</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="22">
         <v>631.99715035262989</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <f>B4-K4</f>
         <v>-1.7000000000000028</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <f>D33</f>
         <v>-4.0199999999999818</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <f>D34</f>
         <v>0.75500000000000078</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <f>D35</f>
         <v>-0.37900000000000045</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <f>D36</f>
         <v>0.36999999999999744</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <f>D37</f>
         <v>-0.99600000000000222</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="27">
         <f>D38</f>
         <v>-0.26200000000000045</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <f t="shared" ref="D33:D38" si="8">B5-K5</f>
         <v>-4.0199999999999818</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="26">
+      <c r="D34" s="25">
         <f t="shared" si="8"/>
         <v>0.75500000000000078</v>
       </c>
@@ -3069,7 +3030,7 @@
       <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="25">
         <f t="shared" si="8"/>
         <v>-0.37900000000000045</v>
       </c>
@@ -3089,7 +3050,7 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="26">
+      <c r="D36" s="25">
         <f t="shared" si="8"/>
         <v>0.36999999999999744</v>
       </c>
@@ -3098,13 +3059,13 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <f t="shared" si="8"/>
         <v>-0.99600000000000222</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f t="shared" si="8"/>
         <v>-0.26200000000000045</v>
       </c>
@@ -3113,10 +3074,10 @@
       <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="29" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3125,7 +3086,7 @@
         <f>$D32-SQRT(CHIINV(0.05,7)*$D23)</f>
         <v>-17.250176468188982</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F43">
@@ -3138,7 +3099,7 @@
         <f>$D33-SQRT(CHIINV(0.05,7)*$E24)</f>
         <v>-20.775622466243213</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F44">
@@ -3151,7 +3112,7 @@
         <f>$D34-SQRT(CHIINV(0.05,7)*$F25)</f>
         <v>-0.64898708765619162</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F45">
@@ -3164,7 +3125,7 @@
         <f>$D35-SQRT(CHIINV(0.05,7)*$G26)</f>
         <v>-1.6828235679525074</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F46">
@@ -3177,7 +3138,7 @@
         <f>$D36-SQRT(CHIINV(0.05,7)*$H27)</f>
         <v>-5.9186821690089255</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>20</v>
       </c>
       <c r="F47">
@@ -3190,7 +3151,7 @@
         <f>$D37-SQRT(CHIINV(0.05,7)*$I28)</f>
         <v>-6.0141268328258342</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F48">
@@ -3203,7 +3164,7 @@
         <f>$D38-SQRT(CHIINV(0.05,7)*$J29)</f>
         <v>-1.4152758554790148</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F49">
@@ -3227,33 +3188,33 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>39</v>
       </c>
       <c r="K7" t="s">
@@ -3261,7 +3222,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="K8" t="s">
@@ -3269,17 +3230,17 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>43</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -3291,7 +3252,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="M12" s="4" t="s">
         <v>70</v>
       </c>
@@ -3301,10 +3262,10 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>44</v>
       </c>
       <c r="K14" t="s">
@@ -3312,138 +3273,138 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3522,21 +3483,21 @@
       <c r="C3" s="18">
         <v>-13.85</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3">
         <v>170.3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3">
         <f>D4</f>
         <v>316</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <v>-40.200000000000003</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3">
         <f>D6</f>
         <v>1284.3</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f>D7</f>
         <v>-180.7</v>
       </c>
@@ -3544,23 +3505,23 @@
         <f t="shared" ref="K3:K7" si="1">C3/97</f>
         <v>-0.14278350515463917</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3">
         <f t="shared" ref="L3:L7" si="2">D3/97</f>
         <v>1.7556701030927837</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3">
         <f t="shared" ref="M3:M7" si="3">E3/97</f>
         <v>3.2577319587628866</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3">
         <f t="shared" ref="N3:N7" si="4">F3/97</f>
         <v>-0.41443298969072168</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3">
         <f t="shared" ref="O3:O7" si="5">G3/97</f>
         <v>13.240206185567009</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="19">
         <f t="shared" ref="P3:P7" si="6">H3/97</f>
         <v>-1.8628865979381442</v>
       </c>
@@ -3572,20 +3533,20 @@
       <c r="C4" s="18">
         <v>-10.43</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4">
         <v>316</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4">
         <v>2586.6999999999998</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <v>-507.2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4">
         <f>E6</f>
         <v>3758.9</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>-539</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -3595,23 +3556,23 @@
         <f t="shared" si="1"/>
         <v>-0.10752577319587629</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>3.2577319587628866</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4">
         <f t="shared" si="3"/>
         <v>26.66701030927835</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4">
         <f t="shared" si="4"/>
         <v>-5.2288659793814434</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4">
         <f t="shared" si="5"/>
         <v>38.751546391752576</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="19">
         <f t="shared" si="6"/>
         <v>-5.5567010309278349</v>
       </c>
@@ -3620,19 +3581,19 @@
       <c r="C5" s="18">
         <v>47.52</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>-40.200000000000003</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5">
         <v>-507.2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <v>53906.5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5">
         <v>34607</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f>F7</f>
         <v>-90.2</v>
       </c>
@@ -3640,23 +3601,23 @@
         <f t="shared" si="1"/>
         <v>0.48989690721649487</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>-0.41443298969072168</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>-5.2288659793814434</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5">
         <f t="shared" si="4"/>
         <v>555.73711340206182</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5">
         <f t="shared" si="5"/>
         <v>356.77319587628864</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="19">
         <f t="shared" si="6"/>
         <v>-0.92989690721649487</v>
       </c>
@@ -3665,86 +3626,86 @@
       <c r="C6" s="18">
         <v>272.35000000000002</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6">
         <v>1284.3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6">
         <v>3758.9</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <v>34607</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6">
         <v>113787</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>-2362</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="1"/>
         <v>2.8077319587628868</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>13.240206185567009</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6">
         <f t="shared" si="3"/>
         <v>38.751546391752576</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6">
         <f t="shared" si="4"/>
         <v>356.77319587628864</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6">
         <f t="shared" si="5"/>
         <v>1173.0618556701031</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <f t="shared" si="6"/>
         <v>-24.350515463917525</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>8.83</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>-180.7</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>-539</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>-90.2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>-2362</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>337</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <f t="shared" si="1"/>
         <v>9.1030927835051553E-2</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <f t="shared" si="2"/>
         <v>-1.8628865979381442</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <f t="shared" si="3"/>
         <v>-5.5567010309278349</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <f t="shared" si="4"/>
         <v>-0.92989690721649487</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="21">
         <f t="shared" si="5"/>
         <v>-24.350515463917525</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="22">
         <f t="shared" si="6"/>
         <v>3.4742268041237114</v>
       </c>
@@ -3845,13 +3806,13 @@
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="23" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3860,7 +3821,7 @@
         <f>($C10-$F10)-(-_xlfn.T.INV(0.05/(6*3*2),97))*SQRT((2/30)*$K2)</f>
         <v>-0.68069082028034111</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E18">
@@ -3871,7 +3832,7 @@
         <f>($C10-$I10)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$K2)</f>
         <v>-0.62787972444979545</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="I18">
@@ -3882,7 +3843,7 @@
         <f>($F10-$I10)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$K2)</f>
         <v>-0.76487972444979591</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="N18">
@@ -3895,7 +3856,7 @@
         <f>($C11-$F11)-TINV(2*0.05/(6*3*2),97)*SQRT((2/30)*$L3)</f>
         <v>-1.5232519160595852</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="E19">
@@ -3906,7 +3867,7 @@
         <f>($C11-$I11)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$L3)</f>
         <v>-1.1354207099244578</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="I19">
@@ -3917,7 +3878,7 @@
         <f>($F11-$I11)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$L3)</f>
         <v>-0.66242070992445878</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="N19">
@@ -3930,7 +3891,7 @@
         <f>($C12-$F12)-TINV(2*0.05/(6*3*2),97)*SQRT((2/30)*$M4)</f>
         <v>-3.7931644175463344</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>85</v>
       </c>
       <c r="E20">
@@ -3941,7 +3902,7 @@
         <f>($C12-$I12)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$M4)</f>
         <v>-1.3288047195481258</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="23" t="s">
         <v>85</v>
       </c>
       <c r="I20">
@@ -3952,7 +3913,7 @@
         <f>($F12-$I12)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$M4)</f>
         <v>-1.628804719548123</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="23" t="s">
         <v>85</v>
       </c>
       <c r="N20">
@@ -3965,7 +3926,7 @@
         <f>($C13-$F13)-TINV(2*0.05/(6*3*2),97)*SQRT((2/30)*$N5)</f>
         <v>-22.055586163947158</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E21">
@@ -3976,7 +3937,7 @@
         <f>($C13-$I13)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$N5)</f>
         <v>-18.428765374133462</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>87</v>
       </c>
       <c r="I21">
@@ -3987,7 +3948,7 @@
         <f>($F13-$I13)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$N5)</f>
         <v>-15.058765374133458</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="23" t="s">
         <v>87</v>
       </c>
       <c r="N21">
@@ -4000,7 +3961,7 @@
         <f>($C14-$F14)-TINV(2*0.05/(6*3*2),97)*SQRT((2/30)*$O6)</f>
         <v>-19.847665052707992</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E22">
@@ -4011,7 +3972,7 @@
         <f>($C14-$I14)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$O6)</f>
         <v>-23.694315369532404</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>88</v>
       </c>
       <c r="I22">
@@ -4022,7 +3983,7 @@
         <f>($F14-$I14)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$O6)</f>
         <v>-30.994315369532401</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="23" t="s">
         <v>88</v>
       </c>
       <c r="N22">
@@ -4035,7 +3996,7 @@
         <f>($C15-$F15)-TINV(2*0.05/(6*3*2),97)*SQRT((2/30)*$P7)</f>
         <v>-1.2094102541952207</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E23">
@@ -4046,7 +4007,7 @@
         <f>($C15-$I15)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$P7)</f>
         <v>-1.8289907477262819</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>89</v>
       </c>
       <c r="I23">
@@ -4057,7 +4018,7 @@
         <f>($F15-$I15)-TINV(2*0.05/(6*3*2),97)*SQRT((1/30+1/40)*$P7)</f>
         <v>-2.0969907477262826</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="23" t="s">
         <v>89</v>
       </c>
       <c r="N23">
@@ -4074,14 +4035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE86B925-2636-40C3-ACE3-CB28D54DAD7E}">
   <dimension ref="B5:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="9" width="11.42578125" style="30"/>
-  </cols>
   <sheetData>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -4190,7 +4148,7 @@
         <v>-8.1408280000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>156</v>
       </c>
@@ -4213,7 +4171,7 @@
         <v>-9.5994480000000006</v>
       </c>
     </row>
-    <row r="11" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>157</v>
       </c>
@@ -4236,7 +4194,7 @@
         <v>-39.331034000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>158</v>
       </c>
@@ -4264,23 +4222,23 @@
         <f>(29*C7+29*C16+39*C25)/97</f>
         <v>1.0642233715463918</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13">
         <f t="shared" ref="L13:M13" si="0">(29*D7+29*D16+39*D25)/97</f>
         <v>-0.1427457237113402</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>-0.10752574762886601</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13">
         <f>(29*F7+29*F16+39*F25)/97</f>
         <v>0.48989690721649487</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13">
         <f t="shared" ref="O13" si="1">(29*G7+29*G16+39*G25)/97</f>
         <v>2.8077318000000004</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13">
         <f t="shared" ref="P13" si="2">(29*H7+29*H16+39*H25)/97</f>
         <v>9.1036761443298989E-2</v>
       </c>
@@ -4302,27 +4260,27 @@
       <c r="J14" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14">
         <f t="shared" ref="K14:K18" si="3">(29*C8+29*C17+39*C26)/97</f>
         <v>-0.14274570670103093</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14">
         <f t="shared" ref="L14:L18" si="4">(29*D8+29*D17+39*D26)/97</f>
         <v>1.7551821350515464</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14">
         <f t="shared" ref="M14:N18" si="5">(29*E8+29*E17+39*E26)/97</f>
         <v>3.2580412380412369</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14">
         <f t="shared" si="5"/>
         <v>-0.41412357010309314</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14">
         <f t="shared" ref="O14:O18" si="6">(29*G8+29*G17+39*G26)/97</f>
         <v>13.240515463917525</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14">
         <f t="shared" ref="P14:P18" si="7">(29*H8+29*H17+39*H26)/97</f>
         <v>-1.8628458490721651</v>
       </c>
@@ -4346,27 +4304,27 @@
       <c r="H15" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>-0.10752575969072169</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15">
         <f t="shared" si="4"/>
         <v>3.2580412350515466</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15">
         <f t="shared" si="5"/>
         <v>26.667010310824743</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15">
         <f t="shared" ref="N15:N18" si="8">(29*F9+29*F18+39*F27)/97</f>
         <v>-5.2288658958762886</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15">
         <f t="shared" si="6"/>
         <v>38.751546551546397</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15">
         <f t="shared" si="7"/>
         <v>-5.5566083844329892</v>
       </c>
@@ -4393,27 +4351,27 @@
       <c r="H16">
         <v>0.1807241</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>0.48989689608247422</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16">
         <f t="shared" si="4"/>
         <v>-0.41412374020618609</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16">
         <f t="shared" si="5"/>
         <v>-5.2288659670103108</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16">
         <f t="shared" si="8"/>
         <v>555.73677001443298</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16">
         <f t="shared" si="6"/>
         <v>356.773195785567</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16">
         <f t="shared" si="7"/>
         <v>-0.9303590187628874</v>
       </c>
@@ -4440,27 +4398,27 @@
       <c r="H17">
         <v>-1.2580966</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>2.8077319449484532</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17">
         <f t="shared" si="4"/>
         <v>13.240515473195876</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17">
         <f t="shared" si="5"/>
         <v>38.751546396701031</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17">
         <f t="shared" si="8"/>
         <v>356.773195785567</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17">
         <f t="shared" si="6"/>
         <v>1173.0587630443299</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17">
         <f t="shared" si="7"/>
         <v>-24.351288519896908</v>
       </c>
@@ -4487,32 +4445,32 @@
       <c r="H18">
         <v>-4.2882759000000004</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>9.1036773402061871E-2</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18">
         <f t="shared" si="4"/>
         <v>-1.8628457134020617</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18">
         <f t="shared" si="5"/>
         <v>-5.5566082488659791</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18">
         <f t="shared" si="8"/>
         <v>-0.93035890618556782</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18">
         <f t="shared" si="6"/>
         <v>-24.35128865257732</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18">
         <f t="shared" si="7"/>
         <v>3.4791921578350515</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>156</v>
       </c>
@@ -4535,7 +4493,7 @@
         <v>13.8902299</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>157</v>
       </c>
@@ -4558,7 +4516,7 @@
         <v>-14.4706207</v>
       </c>
     </row>
-    <row r="21" spans="2:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>158</v>
       </c>
@@ -4580,18 +4538,13 @@
       <c r="H21">
         <v>2.1294670999999998</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="30" t="s">
         <v>142</v>
       </c>
       <c r="K21">
         <f>MDETERM(K13:P18)</f>
         <v>20815653.495743822</v>
       </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -4607,13 +4560,6 @@
         <f>MDETERM(C25:H30)</f>
         <v>2706902.9241508106</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -4634,13 +4580,6 @@
       <c r="H24" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -4664,13 +4603,6 @@
       <c r="H25">
         <v>-1.8474359999999999E-2</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -4701,7 +4633,7 @@
         <f>97*LN(K21)-(29*LN(E5)+29*LN(E14)+39*LN(E23))</f>
         <v>84.995293897976126</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="30" t="s">
         <v>148</v>
       </c>
       <c r="N26">
@@ -4737,7 +4669,7 @@
       <c r="K27">
         <v>6</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="30" t="s">
         <v>150</v>
       </c>
       <c r="N27">
@@ -4835,7 +4767,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="30" t="s">
         <v>149</v>
       </c>
       <c r="K31">
@@ -4845,7 +4777,7 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="30" t="s">
         <v>151</v>
       </c>
       <c r="K32">
@@ -4854,18 +4786,18 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="31">
         <f>FINV(0.05,K29,K30)</f>
         <v>1.3844149949281845</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="N33" s="34">
+      <c r="N33" s="31">
         <f>FDIST(K32,K29,K30)</f>
         <v>7.5556111065396621E-4</v>
       </c>
@@ -4880,40 +4812,22 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>129</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>130</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>154</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>155</v>
       </c>
@@ -4935,59 +4849,59 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="L11" s="4" t="s">
         <v>71</v>
       </c>
@@ -4997,7 +4911,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="L12" s="4" t="s">
         <v>70</v>
       </c>
@@ -5007,100 +4921,100 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="J14" s="30" t="s">
+      <c r="B14" s="28"/>
+      <c r="J14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5125,7 +5039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="15">
         <v>1876679</v>
       </c>
@@ -5170,70 +5084,70 @@
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="18">
         <v>149741</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2">
         <v>23623</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2">
         <v>8113</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2">
         <v>8539</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2">
         <v>8198</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>7073</v>
       </c>
       <c r="K2" s="18">
         <f t="shared" ref="K2:K6" si="1">C2/243</f>
         <v>616.2181069958848</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2">
         <f t="shared" ref="L2:L6" si="2">D2/243</f>
         <v>97.21399176954732</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2">
         <f t="shared" ref="M2:M6" si="3">E2/243</f>
         <v>33.386831275720162</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2">
         <f t="shared" ref="N2:N6" si="4">F2/243</f>
         <v>35.139917695473251</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2">
         <f t="shared" ref="O2:O6" si="5">G2/243</f>
         <v>33.736625514403293</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="19">
         <f t="shared" ref="P2:P6" si="6">H2/243</f>
         <v>29.106995884773664</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="18">
         <v>136807</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3">
         <v>8113</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3">
         <v>21734</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <v>6336</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3">
         <v>8451</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>5757</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -5243,170 +5157,170 @@
         <f t="shared" si="1"/>
         <v>562.99176954732513</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3">
         <f t="shared" si="2"/>
         <v>33.386831275720162</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3">
         <f t="shared" si="3"/>
         <v>89.440329218106996</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3">
         <f t="shared" si="4"/>
         <v>26.074074074074073</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3">
         <f t="shared" si="5"/>
         <v>34.777777777777779</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="19">
         <f t="shared" si="6"/>
         <v>23.691358024691358</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="18">
         <v>111677</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4">
         <v>8539</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4">
         <v>6336</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <v>25484</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4">
         <v>3772</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>4916</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="1"/>
         <v>459.57613168724282</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>35.139917695473251</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4">
         <f t="shared" si="3"/>
         <v>26.074074074074073</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4">
         <f t="shared" si="4"/>
         <v>104.8724279835391</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4">
         <f t="shared" si="5"/>
         <v>15.522633744855968</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="19">
         <f t="shared" si="6"/>
         <v>20.230452674897119</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="18">
         <v>133892</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5">
         <v>8198</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5">
         <v>8451</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <v>3772</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5">
         <v>19911</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>5298</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="1"/>
         <v>550.99588477366251</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>33.736625514403293</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>34.777777777777779</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5">
         <f t="shared" si="4"/>
         <v>15.522633744855968</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5">
         <f t="shared" si="5"/>
         <v>81.938271604938265</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="19">
         <f t="shared" si="6"/>
         <v>21.802469135802468</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="21">
+      <c r="B6" s="28"/>
+      <c r="C6" s="20">
         <v>130415</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>7073</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>5757</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>4916</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>5298</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>19730</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <f t="shared" si="1"/>
         <v>536.68724279835396</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="21">
         <f t="shared" si="2"/>
         <v>29.106995884773664</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <f t="shared" si="3"/>
         <v>23.691358024691358</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <f t="shared" si="4"/>
         <v>20.230452674897119</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="21">
         <f t="shared" si="5"/>
         <v>21.802469135802468</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="22">
         <f t="shared" si="6"/>
         <v>81.193415637860085</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="30" t="s">
+      <c r="D9" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5433,19 +5347,19 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="2">
         <v>49.51</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2">
         <v>50.104999999999997</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="2">
@@ -5475,19 +5389,19 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
       <c r="D15" s="3">
         <v>50.625</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" t="s">
         <v>118</v>
       </c>
       <c r="G15" s="3">
         <v>51.220999999999997</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" t="s">
         <v>119</v>
       </c>
       <c r="J15" s="3">
@@ -5495,13 +5409,13 @@
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5510,213 +5424,213 @@
         <f>($D10-$G10)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$K1)</f>
         <v>-64.945912748101449</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18">
         <f>($D10-$G10)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$K1)</f>
         <v>19.905912748101493</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18">
         <f>($D10-$J10)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$K1)</f>
         <v>-48.605644046323945</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18">
         <f>($D10-$J10)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$K1)</f>
         <v>35.805644046323991</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18">
         <f>($G10-$J10)-TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$K1)</f>
         <v>-24.151906257005251</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18">
         <f>($G10-$J10)+TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$K1)</f>
         <v>56.39190625700526</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="30">
+      <c r="C19">
         <f>($D11-$G11)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$L2)</f>
         <v>-10.029964593841711</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19">
         <f>($D11-$G11)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$L2)</f>
         <v>-0.51003540615827969</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19">
         <f>($D11-$J11)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$L2)</f>
         <v>-7.465251602330663</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19">
         <f>($D11-$J11)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$L2)</f>
         <v>2.0052516023306692</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19">
         <f>($G11-$J11)-TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$L2)</f>
         <v>-1.9782963781594969</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19">
         <f>($G11-$J11)+TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$L2)</f>
         <v>7.0582963781594952</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="30">
+      <c r="C20">
         <f>($D12-$G12)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$M3)</f>
         <v>-5.1606858805256852</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20">
         <f>($D12-$G12)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$M3)</f>
         <v>3.9706858805256875</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20">
         <f>($D12-$J12)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$M3)</f>
         <v>-5.5619815537007522</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20">
         <f>($D12-$J12)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$M3)</f>
         <v>3.5219815537007459</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20">
         <f>($G12-$J12)-TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$M3)</f>
         <v>-4.7588813915722081</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20">
         <f>($G12-$J12)+TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$M3)</f>
         <v>3.9088813915721996</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="30">
+      <c r="C21">
         <f>($D13-$G13)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$N4)</f>
         <v>-7.9539036179711422</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21">
         <f>($D13-$G13)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$N4)</f>
         <v>1.9339036179711462</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21">
         <f>($D13-$J13)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$N4)</f>
         <v>-6.9082356438226729</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21">
         <f>($D13-$J13)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$N4)</f>
         <v>2.9282356438226689</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21">
         <f>($G13-$J13)-TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$N4)</f>
         <v>-3.6728966320356369</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21">
         <f>($G13-$J13)+TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$N4)</f>
         <v>5.7128966320356289</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="30">
+      <c r="C22">
         <f>($D14-$G14)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$O5)</f>
         <v>-4.6290130462164116</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22">
         <f>($D14-$G14)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$O5)</f>
         <v>4.1110130462164109</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22">
         <f>($D14-$J14)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$O5)</f>
         <v>-4.9963246221356847</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22">
         <f>($D14-$J14)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$O5)</f>
         <v>3.6983246221356829</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22">
         <f>($G14-$J14)-TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$O5)</f>
         <v>-4.5381430649242223</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22">
         <f>($G14-$J14)+TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$O5)</f>
         <v>3.7581430649242211</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="30">
+      <c r="C23">
         <f>($D15-$G15)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$P6)</f>
         <v>-4.9461050016019525</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23">
         <f>($D15-$G15)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/86)*$P6)</f>
         <v>3.7541050016019595</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23">
         <f>($D15-$J15)-TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$P6)</f>
         <v>-1.9025199369744081</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23">
         <f>($D15-$J15)+TINV(2*0.05/(6*6),243)*SQRT((1/72+1/88)*$P6)</f>
         <v>6.7525199369744024</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23">
         <f>($G15-$J15)-TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$P6)</f>
         <v>-1.1082457718657661</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23">
         <f>($G15-$J15)+TINV(2*0.05/(6*6),243)*SQRT((1/86+1/88)*$P6)</f>
         <v>7.1502457718657535</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5746,6 +5660,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005AD810B6C2712B4EAD534D27BDEE8F10" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ebfdd085f5fcab7f038d21995492721c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b7089e3-e8c4-423f-b2e4-e9cf6dd3f41a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2b012c5c775ea8ed2db55e1e74dfb97" ns2:_="">
     <xsd:import namespace="3b7089e3-e8c4-423f-b2e4-e9cf6dd3f41a"/>
@@ -5895,19 +5818,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835959D0-093D-4746-95AB-515EBA8E87CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F6171DF-DF3A-4BE0-A1F3-DAB773F4E965}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F6171DF-DF3A-4BE0-A1F3-DAB773F4E965}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835959D0-093D-4746-95AB-515EBA8E87CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b7089e3-e8c4-423f-b2e4-e9cf6dd3f41a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>